--- a/natmiOut/YoungD7/LR-pairs_lrc2p/S100a8-Tlr4.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/S100a8-Tlr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -83,12 +89,6 @@
   </si>
   <si>
     <t>Tlr4</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
   <si>
     <t>sCs</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>6.4593124128232</v>
+        <v>1580.130172666666</v>
       </c>
       <c r="H2">
-        <v>6.4593124128232</v>
+        <v>4740.390517999999</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.981179779023859</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.981179779023859</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.81170973297592</v>
+        <v>14.93036733333333</v>
       </c>
       <c r="N2">
-        <v>7.81170973297592</v>
+        <v>44.791102</v>
       </c>
       <c r="O2">
-        <v>0.1582480614646985</v>
+        <v>0.252612808865421</v>
       </c>
       <c r="P2">
-        <v>0.1582480614646985</v>
+        <v>0.252612808865421</v>
       </c>
       <c r="Q2">
-        <v>50.45827364358317</v>
+        <v>23591.92391239675</v>
       </c>
       <c r="R2">
-        <v>50.45827364358317</v>
+        <v>212327.3152115708</v>
       </c>
       <c r="S2">
-        <v>0.1582480614646985</v>
+        <v>0.2478585799811701</v>
       </c>
       <c r="T2">
-        <v>0.1582480614646985</v>
+        <v>0.2478585799811701</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>6.4593124128232</v>
+        <v>1580.130172666666</v>
       </c>
       <c r="H3">
-        <v>6.4593124128232</v>
+        <v>4740.390517999999</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.981179779023859</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.981179779023859</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>19.4791732516113</v>
+        <v>20.28486166666667</v>
       </c>
       <c r="N3">
-        <v>19.4791732516113</v>
+        <v>60.854585</v>
       </c>
       <c r="O3">
-        <v>0.3946052159349989</v>
+        <v>0.3432076230048887</v>
       </c>
       <c r="P3">
-        <v>0.3946052159349989</v>
+        <v>0.3432076230048887</v>
       </c>
       <c r="Q3">
-        <v>125.8220655756665</v>
+        <v>32052.72196786944</v>
       </c>
       <c r="R3">
-        <v>125.8220655756665</v>
+        <v>288474.497710825</v>
       </c>
       <c r="S3">
-        <v>0.3946052159349989</v>
+        <v>0.3367483796992406</v>
       </c>
       <c r="T3">
-        <v>0.3946052159349989</v>
+        <v>0.3367483796992406</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>6.4593124128232</v>
+        <v>1580.130172666666</v>
       </c>
       <c r="H4">
-        <v>6.4593124128232</v>
+        <v>4740.390517999999</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.981179779023859</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.981179779023859</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.8619739761808</v>
+        <v>19.48898366666667</v>
       </c>
       <c r="N4">
-        <v>17.8619739761808</v>
+        <v>58.466951</v>
       </c>
       <c r="O4">
-        <v>0.3618443147895466</v>
+        <v>0.3297418473407271</v>
       </c>
       <c r="P4">
-        <v>0.3618443147895466</v>
+        <v>0.3297418473407271</v>
       </c>
       <c r="Q4">
-        <v>115.3760702218696</v>
+        <v>30795.13112630784</v>
       </c>
       <c r="R4">
-        <v>115.3760702218696</v>
+        <v>277156.1801367706</v>
       </c>
       <c r="S4">
-        <v>0.3618443147895466</v>
+        <v>0.3235360329086936</v>
       </c>
       <c r="T4">
-        <v>0.3618443147895466</v>
+        <v>0.3235360329086936</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,557 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>6.4593124128232</v>
+        <v>1580.130172666666</v>
       </c>
       <c r="H5">
-        <v>6.4593124128232</v>
+        <v>4740.390517999999</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.981179779023859</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.981179779023859</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.21084241521792</v>
+        <v>4.399549333333334</v>
       </c>
       <c r="N5">
-        <v>4.21084241521792</v>
+        <v>13.198648</v>
       </c>
       <c r="O5">
-        <v>0.08530240781075613</v>
+        <v>0.07443772078896321</v>
       </c>
       <c r="P5">
-        <v>0.08530240781075613</v>
+        <v>0.07443772078896321</v>
       </c>
       <c r="Q5">
-        <v>27.19914668105953</v>
+        <v>6951.860647735518</v>
       </c>
       <c r="R5">
-        <v>27.19914668105953</v>
+        <v>62566.74582961966</v>
       </c>
       <c r="S5">
-        <v>0.08530240781075613</v>
+        <v>0.07303678643475464</v>
       </c>
       <c r="T5">
-        <v>0.08530240781075613</v>
+        <v>0.07303678643475464</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>1.237446333333333</v>
+      </c>
+      <c r="H6">
+        <v>3.712339</v>
+      </c>
+      <c r="I6">
+        <v>0.0007683906939419067</v>
+      </c>
+      <c r="J6">
+        <v>0.0007683906939419066</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>14.93036733333333</v>
+      </c>
+      <c r="N6">
+        <v>44.791102</v>
+      </c>
+      <c r="O6">
+        <v>0.252612808865421</v>
+      </c>
+      <c r="P6">
+        <v>0.252612808865421</v>
+      </c>
+      <c r="Q6">
+        <v>18.47552831195311</v>
+      </c>
+      <c r="R6">
+        <v>166.279754807578</v>
+      </c>
+      <c r="S6">
+        <v>0.0001941053315027151</v>
+      </c>
+      <c r="T6">
+        <v>0.0001941053315027151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>1.237446333333333</v>
+      </c>
+      <c r="H7">
+        <v>3.712339</v>
+      </c>
+      <c r="I7">
+        <v>0.0007683906939419067</v>
+      </c>
+      <c r="J7">
+        <v>0.0007683906939419066</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>20.28486166666667</v>
+      </c>
+      <c r="N7">
+        <v>60.854585</v>
+      </c>
+      <c r="O7">
+        <v>0.3432076230048887</v>
+      </c>
+      <c r="P7">
+        <v>0.3432076230048887</v>
+      </c>
+      <c r="Q7">
+        <v>25.10142769159056</v>
+      </c>
+      <c r="R7">
+        <v>225.912849224315</v>
+      </c>
+      <c r="S7">
+        <v>0.0002637175436068788</v>
+      </c>
+      <c r="T7">
+        <v>0.0002637175436068787</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>1.237446333333333</v>
+      </c>
+      <c r="H8">
+        <v>3.712339</v>
+      </c>
+      <c r="I8">
+        <v>0.0007683906939419067</v>
+      </c>
+      <c r="J8">
+        <v>0.0007683906939419066</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>19.48898366666667</v>
+      </c>
+      <c r="N8">
+        <v>58.466951</v>
+      </c>
+      <c r="O8">
+        <v>0.3297418473407271</v>
+      </c>
+      <c r="P8">
+        <v>0.3297418473407271</v>
+      </c>
+      <c r="Q8">
+        <v>24.11657137870989</v>
+      </c>
+      <c r="R8">
+        <v>217.049142408389</v>
+      </c>
+      <c r="S8">
+        <v>0.0002533705668998276</v>
+      </c>
+      <c r="T8">
+        <v>0.0002533705668998275</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>1.237446333333333</v>
+      </c>
+      <c r="H9">
+        <v>3.712339</v>
+      </c>
+      <c r="I9">
+        <v>0.0007683906939419067</v>
+      </c>
+      <c r="J9">
+        <v>0.0007683906939419066</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>4.399549333333334</v>
+      </c>
+      <c r="N9">
+        <v>13.198648</v>
+      </c>
+      <c r="O9">
+        <v>0.07443772078896321</v>
+      </c>
+      <c r="P9">
+        <v>0.07443772078896321</v>
+      </c>
+      <c r="Q9">
+        <v>5.444206190852445</v>
+      </c>
+      <c r="R9">
+        <v>48.997855717672</v>
+      </c>
+      <c r="S9">
+        <v>5.719725193248534E-05</v>
+      </c>
+      <c r="T9">
+        <v>5.719725193248533E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>29.07137133333334</v>
+      </c>
+      <c r="H10">
+        <v>87.21411400000001</v>
+      </c>
+      <c r="I10">
+        <v>0.01805183028219906</v>
+      </c>
+      <c r="J10">
+        <v>0.01805183028219906</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>14.93036733333333</v>
+      </c>
+      <c r="N10">
+        <v>44.791102</v>
+      </c>
+      <c r="O10">
+        <v>0.252612808865421</v>
+      </c>
+      <c r="P10">
+        <v>0.252612808865421</v>
+      </c>
+      <c r="Q10">
+        <v>434.0462528904031</v>
+      </c>
+      <c r="R10">
+        <v>3906.416276013628</v>
+      </c>
+      <c r="S10">
+        <v>0.004560123552748169</v>
+      </c>
+      <c r="T10">
+        <v>0.004560123552748169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>29.07137133333334</v>
+      </c>
+      <c r="H11">
+        <v>87.21411400000001</v>
+      </c>
+      <c r="I11">
+        <v>0.01805183028219906</v>
+      </c>
+      <c r="J11">
+        <v>0.01805183028219906</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>20.28486166666667</v>
+      </c>
+      <c r="N11">
+        <v>60.854585</v>
+      </c>
+      <c r="O11">
+        <v>0.3432076230048887</v>
+      </c>
+      <c r="P11">
+        <v>0.3432076230048887</v>
+      </c>
+      <c r="Q11">
+        <v>589.7087459569657</v>
+      </c>
+      <c r="R11">
+        <v>5307.37871361269</v>
+      </c>
+      <c r="S11">
+        <v>0.006195525762041208</v>
+      </c>
+      <c r="T11">
+        <v>0.006195525762041208</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>29.07137133333334</v>
+      </c>
+      <c r="H12">
+        <v>87.21411400000001</v>
+      </c>
+      <c r="I12">
+        <v>0.01805183028219906</v>
+      </c>
+      <c r="J12">
+        <v>0.01805183028219906</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>19.48898366666667</v>
+      </c>
+      <c r="N12">
+        <v>58.466951</v>
+      </c>
+      <c r="O12">
+        <v>0.3297418473407271</v>
+      </c>
+      <c r="P12">
+        <v>0.3297418473407271</v>
+      </c>
+      <c r="Q12">
+        <v>566.571481082935</v>
+      </c>
+      <c r="R12">
+        <v>5099.143329746415</v>
+      </c>
+      <c r="S12">
+        <v>0.005952443865133596</v>
+      </c>
+      <c r="T12">
+        <v>0.005952443865133596</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>29.07137133333334</v>
+      </c>
+      <c r="H13">
+        <v>87.21411400000001</v>
+      </c>
+      <c r="I13">
+        <v>0.01805183028219906</v>
+      </c>
+      <c r="J13">
+        <v>0.01805183028219906</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>4.399549333333334</v>
+      </c>
+      <c r="N13">
+        <v>13.198648</v>
+      </c>
+      <c r="O13">
+        <v>0.07443772078896321</v>
+      </c>
+      <c r="P13">
+        <v>0.07443772078896321</v>
+      </c>
+      <c r="Q13">
+        <v>127.9009323686525</v>
+      </c>
+      <c r="R13">
+        <v>1151.108391317872</v>
+      </c>
+      <c r="S13">
+        <v>0.001343737102276084</v>
+      </c>
+      <c r="T13">
+        <v>0.001343737102276084</v>
       </c>
     </row>
   </sheetData>
